--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_543.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_543.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d244432-Reviews-Motel_6_Los_Angeles_Harbor_City-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Motel-6-Los-Angeles-Harbor-City.h996137.Hotel-Information?chkin=6%2F27%2F2018&amp;chkout=6%2F28%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1529085200984&amp;cancellable=false&amp;regionId=178280&amp;vip=false&amp;c=7aeb9b76-d2f8-4dcc-9e6e-57e08a821613&amp;mctc=9&amp;exp_dp=79.99&amp;exp_ts=1529085201981&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_543.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_543.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="103">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,189 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d244432-r585725811-Motel_6_Los_Angeles_Harbor_City-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>32655</t>
+  </si>
+  <si>
+    <t>244432</t>
+  </si>
+  <si>
+    <t>585725811</t>
+  </si>
+  <si>
+    <t>06/07/2018</t>
+  </si>
+  <si>
+    <t>Awesome Staff, Great Place</t>
+  </si>
+  <si>
+    <t>Nice and clean room. Friendly staff. Near Starbucks.Good Wifi. Pleanty of parking. Easy access to freeway. Easy access to everything. Very quick and No hassle check in. Free coffee in morning. Definitely a place to stay. HIGHLY RECOMMENDED...especial thanks to Theresa, great job.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d244432-r581218937-Motel_6_Los_Angeles_Harbor_City-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>581218937</t>
+  </si>
+  <si>
+    <t>05/19/2018</t>
+  </si>
+  <si>
+    <t>Best Location Ever</t>
+  </si>
+  <si>
+    <t>they have a nice and clean room, great serivce, friendly staff. All your needs is right beside the area. Gas station, banks, food4less, ross, fitness center, mcdo, carls jr, starbucks and others..easy access to freeway 110..definite to comeback here.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d244432-r578443009-Motel_6_Los_Angeles_Harbor_City-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>578443009</t>
+  </si>
+  <si>
+    <t>05/06/2018</t>
+  </si>
+  <si>
+    <t>NICE LOCATION</t>
+  </si>
+  <si>
+    <t>hotel staffs are nice. location is near to everything like gas station, carls jr, ross, bank, mc do, popeyes, big lots, dollar tree, food less and many more. easy access to free way 110. has good parking space..nice and clean</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d244432-r431008859-Motel_6_Los_Angeles_Harbor_City-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>431008859</t>
+  </si>
+  <si>
+    <t>10/23/2016</t>
+  </si>
+  <si>
+    <t>Pleasant Stay</t>
+  </si>
+  <si>
+    <t>When staying at this location I learned that I can hold Motel 6 to higher standards now. Thankful they were kind. They have a couple different locations to pick food from AMPM or Carl's JR some other grocery store across the street. Thanks for a pleasant stay. 5 stars</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d244432-r424664779-Motel_6_Los_Angeles_Harbor_City-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>424664779</t>
+  </si>
+  <si>
+    <t>10/03/2016</t>
+  </si>
+  <si>
+    <t>"Convenient Place"</t>
+  </si>
+  <si>
+    <t>I was in the area and wanted to visit the USS IOWA (BB61), so I needed a hotel.  This was one of the few in the area, that had a vacancy.  It was a nice enough place, but kind of crappy from the outside.  My room was also near the stairwell and the ice machine, so it was a bit noisy with all the foot traffic.  Also, parking was next to impossible to find, so lots of people parked at the neighboring fast food restaurant after hours.  I would consider staying here again, so I'll give it two rabbit ears up!!(\ (\( -.-)o_(")(")</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d244432-r399984814-Motel_6_Los_Angeles_Harbor_City-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>399984814</t>
+  </si>
+  <si>
+    <t>08/01/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wouldn't recommend </t>
+  </si>
+  <si>
+    <t>Basically you get what you pay for. First thing that hit you when you open door,was the smell. Like a heavy constant air freshner. Very noisy. Not that clean. Receptionist however, was very friendly and helpful. Not far from coast, so a plus.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d244432-r216979695-Motel_6_Los_Angeles_Harbor_City-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>216979695</t>
+  </si>
+  <si>
+    <t>07/23/2014</t>
+  </si>
+  <si>
+    <t>Filthy room!</t>
+  </si>
+  <si>
+    <t>I wish i would have read the reviews before booking this filthy motel. We attempted to check in at 3pm Monday night. The lady at the front desk was exceptionally nice and made a big effort to ensure she got my email to send me discounts on future stays. I will never stay at a Motel 6 again after this experience and this is why:
+After paying $86 for the room, she proceeds to inform us that the room is not ready yet and that she will call us when we can pick up the key and enter. She says they need more time to clean it because "staff is on lunch." (Even though check in times start at 3p. This seems like a late lunch to me.) She says something like an hour for estimated cleaning time. 
+My boyfriend and I leave for the beach and don't ever receive a phone call. We are getting hungry by this time (6p-ish) so we go back to see if we can enter and leave our luggage to go out to eat. The same front desk lady is there and seems surprised to see us again. She makes no apologies for "forgetting" to call us. 
+I ask if the room is ready and she says yes and gives us the key cards. We drop off our stuff (no major valuables, cuz we felt sketched out by the monthly tenants out back where...I wish i would have read the reviews before booking this filthy motel. We attempted to check in at 3pm Monday night. The lady at the front desk was exceptionally nice and made a big effort to ensure she got my email to send me discounts on future stays. I will never stay at a Motel 6 again after this experience and this is why:After paying $86 for the room, she proceeds to inform us that the room is not ready yet and that she will call us when we can pick up the key and enter. She says they need more time to clean it because "staff is on lunch." (Even though check in times start at 3p. This seems like a late lunch to me.) She says something like an hour for estimated cleaning time. My boyfriend and I leave for the beach and don't ever receive a phone call. We are getting hungry by this time (6p-ish) so we go back to see if we can enter and leave our luggage to go out to eat. The same front desk lady is there and seems surprised to see us again. She makes no apologies for "forgetting" to call us. I ask if the room is ready and she says yes and gives us the key cards. We drop off our stuff (no major valuables, cuz we felt sketched out by the monthly tenants out back where our room is) The tenants are rowdy and become very friendly and talkative when they see us struggling with a mechanical failure with our rental car in the parking lot. Long story short, after having to exchange our rental at Hertz, we return VERY late and flip open the covers only to discover a shocking blood stain on the corner of the sheets as well as the center of this supposedly freshly cleaned room! I know this isn't our blood (menstrual or otherwise). We are thoroughly disgusted and had to demand a refund at 1am. This made it VERY difficult to find another room elsewhere at the ungodly hour. I haven't received the refund yet but you better believe I'm suing if it doesn't come through within 5 business days. This establishment should be condemned.MoreShow less</t>
+  </si>
+  <si>
+    <t>I wish i would have read the reviews before booking this filthy motel. We attempted to check in at 3pm Monday night. The lady at the front desk was exceptionally nice and made a big effort to ensure she got my email to send me discounts on future stays. I will never stay at a Motel 6 again after this experience and this is why:
+After paying $86 for the room, she proceeds to inform us that the room is not ready yet and that she will call us when we can pick up the key and enter. She says they need more time to clean it because "staff is on lunch." (Even though check in times start at 3p. This seems like a late lunch to me.) She says something like an hour for estimated cleaning time. 
+My boyfriend and I leave for the beach and don't ever receive a phone call. We are getting hungry by this time (6p-ish) so we go back to see if we can enter and leave our luggage to go out to eat. The same front desk lady is there and seems surprised to see us again. She makes no apologies for "forgetting" to call us. 
+I ask if the room is ready and she says yes and gives us the key cards. We drop off our stuff (no major valuables, cuz we felt sketched out by the monthly tenants out back where...I wish i would have read the reviews before booking this filthy motel. We attempted to check in at 3pm Monday night. The lady at the front desk was exceptionally nice and made a big effort to ensure she got my email to send me discounts on future stays. I will never stay at a Motel 6 again after this experience and this is why:After paying $86 for the room, she proceeds to inform us that the room is not ready yet and that she will call us when we can pick up the key and enter. She says they need more time to clean it because "staff is on lunch." (Even though check in times start at 3p. This seems like a late lunch to me.) She says something like an hour for estimated cleaning time. My boyfriend and I leave for the beach and don't ever receive a phone call. We are getting hungry by this time (6p-ish) so we go back to see if we can enter and leave our luggage to go out to eat. The same front desk lady is there and seems surprised to see us again. She makes no apologies for "forgetting" to call us. I ask if the room is ready and she says yes and gives us the key cards. We drop off our stuff (no major valuables, cuz we felt sketched out by the monthly tenants out back where our room is) The tenants are rowdy and become very friendly and talkative when they see us struggling with a mechanical failure with our rental car in the parking lot. Long story short, after having to exchange our rental at Hertz, we return VERY late and flip open the covers only to discover a shocking blood stain on the corner of the sheets as well as the center of this supposedly freshly cleaned room! I know this isn't our blood (menstrual or otherwise). We are thoroughly disgusted and had to demand a refund at 1am. This made it VERY difficult to find another room elsewhere at the ungodly hour. I haven't received the refund yet but you better believe I'm suing if it doesn't come through within 5 business days. This establishment should be condemned.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d244432-r209652321-Motel_6_Los_Angeles_Harbor_City-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>209652321</t>
+  </si>
+  <si>
+    <t>06/09/2014</t>
+  </si>
+  <si>
+    <t>Inexpensive room for a night</t>
+  </si>
+  <si>
+    <t>Picked this motel because I had an early flight out of Lax the next morning.  Places very close to the airport were all full.  This motel is about 20 minutes away from LAX on a Sun AM with no traffic so it was OK.  The room was basic but adequate.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d244432-r73569382-Motel_6_Los_Angeles_Harbor_City-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>73569382</t>
+  </si>
+  <si>
+    <t>08/03/2010</t>
+  </si>
+  <si>
+    <t>Friendly staff</t>
+  </si>
+  <si>
+    <t>I have stayed here about once a week for the last two years and have never had a bad experience.  The physical facilities are basic, but clean; it is the employees who really go out of their way to make me feel welcome.  When I know what night I will be needing to stay, I call direct to hold a room.  They all know my voice and automatically check my preferred rooms for availability.</t>
+  </si>
+  <si>
+    <t>August 2010</t>
   </si>
 </sst>
 </file>
@@ -648,6 +831,561 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>11154</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>11154</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>11154</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>11154</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>11154</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>11154</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>11154</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>11154</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" t="s">
+        <v>73</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>11154</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_543.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_543.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="112">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>AliceinTime</t>
+  </si>
+  <si>
     <t>07/07/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>joseestrada41613</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d244432-r581218937-Motel_6_Los_Angeles_Harbor_City-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>andrewfordmedina829</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d244432-r578443009-Motel_6_Los_Angeles_Harbor_City-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Peter M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d244432-r431008859-Motel_6_Los_Angeles_Harbor_City-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -240,6 +252,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Marc C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d244432-r424664779-Motel_6_Los_Angeles_Harbor_City-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -258,6 +273,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>Brit I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d244432-r399984814-Motel_6_Los_Angeles_Harbor_City-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -271,6 +289,9 @@
   </si>
   <si>
     <t>Basically you get what you pay for. First thing that hit you when you open door,was the smell. Like a heavy constant air freshner. Very noisy. Not that clean. Receptionist however, was very friendly and helpful. Not far from coast, so a plus.</t>
+  </si>
+  <si>
+    <t>Tearsurfjoy</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d244432-r216979695-Motel_6_Los_Angeles_Harbor_City-Los_Angeles_California.html</t>
@@ -297,6 +318,9 @@
 I ask if the room is ready and she says yes and gives us the key cards. We drop off our stuff (no major valuables, cuz we felt sketched out by the monthly tenants out back where...I wish i would have read the reviews before booking this filthy motel. We attempted to check in at 3pm Monday night. The lady at the front desk was exceptionally nice and made a big effort to ensure she got my email to send me discounts on future stays. I will never stay at a Motel 6 again after this experience and this is why:After paying $86 for the room, she proceeds to inform us that the room is not ready yet and that she will call us when we can pick up the key and enter. She says they need more time to clean it because "staff is on lunch." (Even though check in times start at 3p. This seems like a late lunch to me.) She says something like an hour for estimated cleaning time. My boyfriend and I leave for the beach and don't ever receive a phone call. We are getting hungry by this time (6p-ish) so we go back to see if we can enter and leave our luggage to go out to eat. The same front desk lady is there and seems surprised to see us again. She makes no apologies for "forgetting" to call us. I ask if the room is ready and she says yes and gives us the key cards. We drop off our stuff (no major valuables, cuz we felt sketched out by the monthly tenants out back where our room is) The tenants are rowdy and become very friendly and talkative when they see us struggling with a mechanical failure with our rental car in the parking lot. Long story short, after having to exchange our rental at Hertz, we return VERY late and flip open the covers only to discover a shocking blood stain on the corner of the sheets as well as the center of this supposedly freshly cleaned room! I know this isn't our blood (menstrual or otherwise). We are thoroughly disgusted and had to demand a refund at 1am. This made it VERY difficult to find another room elsewhere at the ungodly hour. I haven't received the refund yet but you better believe I'm suing if it doesn't come through within 5 business days. This establishment should be condemned.More</t>
   </si>
   <si>
+    <t>iosilver</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d244432-r209652321-Motel_6_Los_Angeles_Harbor_City-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -313,6 +337,9 @@
   </si>
   <si>
     <t>May 2014</t>
+  </si>
+  <si>
+    <t>GHW1965</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d244432-r73569382-Motel_6_Los_Angeles_Harbor_City-Los_Angeles_California.html</t>
@@ -835,43 +862,47 @@
       <c r="A2" t="n">
         <v>11154</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -885,50 +916,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>11154</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -948,50 +983,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>11154</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1009,50 +1048,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>11154</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1066,50 +1109,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>11154</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -1129,50 +1176,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>11154</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1186,41 +1237,45 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>11154</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
@@ -1249,50 +1304,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>11154</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="O9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -1316,50 +1375,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>11154</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="O10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -1383,7 +1446,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
